--- a/derivatives/h1-1_palm/h1-1_results.xlsx
+++ b/derivatives/h1-1_palm/h1-1_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/istart-eyeballs/derivatives/h1-1_palm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D866DD01-EF6E-6940-AC57-5CF9C16C30FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2BF185EE-2EE2-B74D-AB7B-94111DFCBA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440"/>
   </bookViews>
@@ -987,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BS32"/>
+  <dimension ref="A1:BS33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31:T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3664,863 +3664,863 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22">
-        <v>-0.16439999999999999</v>
-      </c>
-      <c r="C22">
-        <v>-0.59919999999999995</v>
-      </c>
-      <c r="D22">
-        <v>-0.31390000000000001</v>
-      </c>
-      <c r="E22">
-        <v>0.6502</v>
-      </c>
-      <c r="F22">
-        <v>-1.8136000000000001</v>
-      </c>
-      <c r="G22">
-        <v>0.1981</v>
-      </c>
-      <c r="H22">
-        <v>-0.93189999999999995</v>
-      </c>
-      <c r="I22">
-        <v>-0.34279999999999999</v>
-      </c>
-      <c r="J22">
-        <v>-0.79820000000000002</v>
-      </c>
-      <c r="K22">
-        <v>-1.9563999999999999</v>
-      </c>
-      <c r="L22">
-        <v>0.25380000000000003</v>
-      </c>
-      <c r="M22">
-        <v>-0.3725</v>
-      </c>
-      <c r="N22">
-        <v>-0.88970000000000005</v>
-      </c>
-      <c r="O22">
-        <v>-2.3243999999999998</v>
-      </c>
-      <c r="P22">
-        <v>2.6200000000000001E-2</v>
-      </c>
-      <c r="Q22">
-        <v>0.2702</v>
-      </c>
-      <c r="R22">
-        <v>-0.627</v>
-      </c>
-      <c r="S22">
-        <v>-0.67600000000000005</v>
-      </c>
-      <c r="T22">
-        <v>-2.2181000000000002</v>
-      </c>
-      <c r="U22">
-        <v>1.3142</v>
-      </c>
-      <c r="V22">
-        <v>-0.42509999999999998</v>
-      </c>
-      <c r="W22">
-        <v>-1.0871</v>
-      </c>
-      <c r="X22">
-        <v>-1.6188</v>
-      </c>
-      <c r="Y22">
-        <v>-1.6372</v>
-      </c>
-      <c r="Z22">
-        <v>1.1306</v>
-      </c>
-      <c r="AA22">
-        <v>-0.52849999999999997</v>
-      </c>
-      <c r="AB22">
-        <v>-1.0103</v>
-      </c>
-      <c r="AC22">
-        <v>-1.3084</v>
-      </c>
-      <c r="AD22">
-        <v>-2.5840999999999998</v>
-      </c>
-      <c r="AE22">
-        <v>-0.8196</v>
-      </c>
-      <c r="AF22">
-        <v>-0.74590000000000001</v>
-      </c>
-      <c r="AG22">
-        <v>-1.3172999999999999</v>
-      </c>
-      <c r="AH22">
-        <v>-2.2250999999999999</v>
-      </c>
-      <c r="AI22">
-        <v>-3.1459000000000001</v>
-      </c>
-      <c r="AJ22">
-        <v>-1.3392999999999999</v>
-      </c>
-      <c r="AK22">
-        <v>-0.82779999999999998</v>
-      </c>
-      <c r="AL22">
-        <v>-0.33889999999999998</v>
-      </c>
-      <c r="AM22">
-        <v>3.78E-2</v>
-      </c>
-      <c r="AN22">
-        <v>-2.0855999999999999</v>
-      </c>
-      <c r="AO22">
-        <v>-0.36270000000000002</v>
-      </c>
-      <c r="AP22">
-        <v>1.3386</v>
-      </c>
-      <c r="AQ22">
-        <v>-1.0206</v>
-      </c>
-      <c r="AR22">
-        <v>0.18060000000000001</v>
-      </c>
-      <c r="AS22">
-        <v>-1.3898999999999999</v>
-      </c>
-      <c r="AT22">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="AU22">
-        <v>1.6413</v>
-      </c>
-      <c r="AV22">
-        <v>0.79679999999999995</v>
-      </c>
-      <c r="AW22">
-        <v>-2.0889000000000002</v>
-      </c>
-      <c r="AX22">
-        <v>-2.3873000000000002</v>
-      </c>
-      <c r="AY22">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="AZ22">
-        <v>0.50449999999999995</v>
-      </c>
-      <c r="BA22">
-        <v>0.14019999999999999</v>
-      </c>
-      <c r="BB22">
-        <v>-1.2273000000000001</v>
-      </c>
-      <c r="BC22">
-        <v>0.47310000000000002</v>
-      </c>
-      <c r="BD22">
-        <v>-8.1600000000000006E-2</v>
-      </c>
-      <c r="BE22">
-        <v>0.1227</v>
-      </c>
-      <c r="BF22">
-        <v>-1.5177</v>
-      </c>
-      <c r="BG22">
-        <v>-0.90590000000000004</v>
-      </c>
-      <c r="BH22">
-        <v>-1.1493</v>
-      </c>
-      <c r="BI22">
-        <v>-0.91200000000000003</v>
-      </c>
-      <c r="BJ22">
-        <v>-0.24479999999999999</v>
-      </c>
-      <c r="BK22">
-        <v>-1.8212999999999999</v>
-      </c>
-      <c r="BL22">
-        <v>-2.391</v>
-      </c>
-      <c r="BM22">
-        <v>-0.53600000000000003</v>
-      </c>
-      <c r="BN22">
-        <v>-0.1095</v>
-      </c>
-      <c r="BO22">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="BP22">
-        <v>0.7026</v>
-      </c>
-      <c r="BQ22">
-        <v>-0.66139999999999999</v>
-      </c>
-      <c r="BR22">
-        <v>-1.7927999999999999</v>
-      </c>
-      <c r="BS22">
-        <v>1.2040999999999999</v>
-      </c>
-    </row>
     <row r="23" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23">
-        <v>0.56569999999999998</v>
+        <v>-0.73729999999999996</v>
       </c>
       <c r="C23">
-        <v>0.72189999999999999</v>
+        <v>0.1067</v>
       </c>
       <c r="D23">
-        <v>0.62939999999999996</v>
+        <v>-0.72019999999999995</v>
       </c>
       <c r="E23">
-        <v>0.25800000000000001</v>
+        <v>0.10639999999999999</v>
       </c>
       <c r="F23">
-        <v>0.96379999999999999</v>
+        <v>-0.45319999999999999</v>
       </c>
       <c r="G23">
-        <v>0.41920000000000002</v>
+        <v>-0.91579999999999995</v>
       </c>
       <c r="H23">
-        <v>0.82</v>
+        <v>-0.20619999999999999</v>
       </c>
       <c r="I23">
-        <v>0.63929999999999998</v>
+        <v>-0.62990000000000002</v>
       </c>
       <c r="J23">
-        <v>0.78839999999999999</v>
+        <v>-1.3379000000000001</v>
       </c>
       <c r="K23">
-        <v>0.9708</v>
+        <v>0.19239999999999999</v>
       </c>
       <c r="L23">
-        <v>0.39810000000000001</v>
+        <v>-0.52180000000000004</v>
       </c>
       <c r="M23">
-        <v>0.63649999999999995</v>
+        <v>4.0399999999999998E-2</v>
       </c>
       <c r="N23">
-        <v>0.81479999999999997</v>
+        <v>-1.3046</v>
       </c>
       <c r="O23">
-        <v>0.9889</v>
+        <v>-2.5424000000000002</v>
       </c>
       <c r="P23">
-        <v>0.49120000000000003</v>
+        <v>-0.32240000000000002</v>
       </c>
       <c r="Q23">
-        <v>0.39810000000000001</v>
+        <v>0.68620000000000003</v>
       </c>
       <c r="R23">
-        <v>0.73399999999999999</v>
+        <v>-0.75800000000000001</v>
       </c>
       <c r="S23">
-        <v>0.74390000000000001</v>
+        <v>-2.7639</v>
       </c>
       <c r="T23">
-        <v>0.98580000000000001</v>
+        <v>-3.3090999999999999</v>
       </c>
       <c r="U23">
-        <v>9.7699999999999995E-2</v>
+        <v>3.95E-2</v>
       </c>
       <c r="V23">
-        <v>0.67110000000000003</v>
+        <v>0.48249999999999998</v>
       </c>
       <c r="W23">
-        <v>0.8579</v>
+        <v>-0.44269999999999998</v>
       </c>
       <c r="X23">
-        <v>0.94269999999999998</v>
+        <v>-1.5933999999999999</v>
       </c>
       <c r="Y23">
-        <v>0.95250000000000001</v>
+        <v>-2.1156000000000001</v>
       </c>
       <c r="Z23">
-        <v>0.13669999999999999</v>
+        <v>-0.52490000000000003</v>
       </c>
       <c r="AA23">
-        <v>0.70499999999999996</v>
+        <v>-0.27879999999999999</v>
       </c>
       <c r="AB23">
-        <v>0.84119999999999995</v>
+        <v>-0.79220000000000002</v>
       </c>
       <c r="AC23">
-        <v>0.90329999999999999</v>
+        <v>-2.3319999999999999</v>
       </c>
       <c r="AD23">
-        <v>0.99299999999999999</v>
+        <v>-2.0314999999999999</v>
       </c>
       <c r="AE23">
-        <v>0.79079999999999995</v>
+        <v>-1.5787</v>
       </c>
       <c r="AF23">
-        <v>0.77149999999999996</v>
+        <v>-0.1009</v>
       </c>
       <c r="AG23">
-        <v>0.89749999999999996</v>
+        <v>-2.4863</v>
       </c>
       <c r="AH23">
-        <v>0.98470000000000002</v>
+        <v>-2.6219999999999999</v>
       </c>
       <c r="AI23">
-        <v>0.99850000000000005</v>
+        <v>-2.1808000000000001</v>
       </c>
       <c r="AJ23">
-        <v>0.90449999999999997</v>
+        <v>-1.6263000000000001</v>
       </c>
       <c r="AK23">
-        <v>0.79559999999999997</v>
+        <v>-0.10879999999999999</v>
       </c>
       <c r="AL23">
-        <v>0.61670000000000003</v>
+        <v>-0.59209999999999996</v>
       </c>
       <c r="AM23">
-        <v>0.4919</v>
+        <v>-2.4662000000000002</v>
       </c>
       <c r="AN23">
-        <v>0.98199999999999998</v>
+        <v>-1.6082000000000001</v>
       </c>
       <c r="AO23">
-        <v>0.63900000000000001</v>
+        <v>-1.8967000000000001</v>
       </c>
       <c r="AP23">
-        <v>9.5399999999999999E-2</v>
+        <v>0.61</v>
       </c>
       <c r="AQ23">
-        <v>0.84750000000000003</v>
+        <v>-1.6435</v>
       </c>
       <c r="AR23">
-        <v>0.43440000000000001</v>
+        <v>-1.8626</v>
       </c>
       <c r="AS23">
-        <v>0.91310000000000002</v>
+        <v>-1.6518999999999999</v>
       </c>
       <c r="AT23">
-        <v>0.31469999999999998</v>
+        <v>-1.1272</v>
       </c>
       <c r="AU23">
-        <v>5.5E-2</v>
+        <v>0.76649999999999996</v>
       </c>
       <c r="AV23">
-        <v>0.2185</v>
+        <v>-0.1308</v>
       </c>
       <c r="AW23">
-        <v>0.97940000000000005</v>
+        <v>-1.9463999999999999</v>
       </c>
       <c r="AX23">
-        <v>0.99</v>
+        <v>-3.0373999999999999</v>
       </c>
       <c r="AY23">
-        <v>0.42309999999999998</v>
+        <v>0.1215</v>
       </c>
       <c r="AZ23">
-        <v>0.31080000000000002</v>
+        <v>-4.58E-2</v>
       </c>
       <c r="BA23">
-        <v>0.44369999999999998</v>
+        <v>-0.3362</v>
       </c>
       <c r="BB23">
-        <v>0.89019999999999999</v>
+        <v>-0.76439999999999997</v>
       </c>
       <c r="BC23">
-        <v>0.3211</v>
+        <v>-0.83289999999999997</v>
       </c>
       <c r="BD23">
-        <v>0.53029999999999999</v>
+        <v>0.11840000000000001</v>
       </c>
       <c r="BE23">
-        <v>0.44650000000000001</v>
+        <v>-0.114</v>
       </c>
       <c r="BF23">
-        <v>0.93410000000000004</v>
+        <v>-1.3162</v>
       </c>
       <c r="BG23">
-        <v>0.8115</v>
+        <v>-1.5097</v>
       </c>
       <c r="BH23">
-        <v>0.86919999999999997</v>
+        <v>-0.69379999999999997</v>
       </c>
       <c r="BI23">
-        <v>0.81969999999999998</v>
+        <v>-1.7687999999999999</v>
       </c>
       <c r="BJ23">
-        <v>0.59609999999999996</v>
+        <v>1.1876</v>
       </c>
       <c r="BK23">
-        <v>0.96289999999999998</v>
+        <v>-0.74960000000000004</v>
       </c>
       <c r="BL23">
-        <v>0.98780000000000001</v>
+        <v>-1.2453000000000001</v>
       </c>
       <c r="BM23">
-        <v>0.70189999999999997</v>
+        <v>-0.42449999999999999</v>
       </c>
       <c r="BN23">
-        <v>0.54510000000000003</v>
+        <v>-1.2912999999999999</v>
       </c>
       <c r="BO23">
-        <v>0.24729999999999999</v>
+        <v>0.90029999999999999</v>
       </c>
       <c r="BP23">
-        <v>0.25119999999999998</v>
+        <v>8.7400000000000005E-2</v>
       </c>
       <c r="BQ23">
-        <v>0.74729999999999996</v>
+        <v>-1.4016999999999999</v>
       </c>
       <c r="BR23">
-        <v>0.96089999999999998</v>
+        <v>-1.7813000000000001</v>
       </c>
       <c r="BS23">
-        <v>0.11409999999999999</v>
+        <v>-1.2128000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0.76790000000000003</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.76319999999999999</v>
       </c>
       <c r="E24">
-        <v>0.99960000000000004</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.65780000000000005</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0.82220000000000004</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0.58160000000000001</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0.73440000000000005</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0.90310000000000001</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0.41820000000000002</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.69169999999999998</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>0.4849</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.90329999999999999</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>0.99339999999999995</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>0.62219999999999998</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>0.24759999999999999</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>0.76639999999999997</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>0.99719999999999998</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="U24">
-        <v>0.95730000000000004</v>
+        <v>0.48060000000000003</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>0.32240000000000002</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>0.67579999999999996</v>
       </c>
       <c r="X24">
-        <v>1</v>
+        <v>0.93840000000000001</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>0.98070000000000002</v>
       </c>
       <c r="Z24">
-        <v>0.98429999999999995</v>
+        <v>0.69640000000000002</v>
       </c>
       <c r="AA24">
-        <v>1</v>
+        <v>0.61439999999999995</v>
       </c>
       <c r="AB24">
-        <v>1</v>
+        <v>0.77749999999999997</v>
       </c>
       <c r="AC24">
-        <v>1</v>
+        <v>0.98870000000000002</v>
       </c>
       <c r="AD24">
-        <v>1</v>
+        <v>0.97729999999999995</v>
       </c>
       <c r="AE24">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="AF24">
-        <v>1</v>
+        <v>0.53669999999999995</v>
       </c>
       <c r="AG24">
-        <v>1</v>
+        <v>0.99150000000000005</v>
       </c>
       <c r="AH24">
-        <v>1</v>
+        <v>0.99460000000000004</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>0.98350000000000004</v>
       </c>
       <c r="AJ24">
-        <v>1</v>
+        <v>0.94550000000000001</v>
       </c>
       <c r="AK24">
-        <v>1</v>
+        <v>0.54559999999999997</v>
       </c>
       <c r="AL24">
-        <v>1</v>
+        <v>0.71730000000000005</v>
       </c>
       <c r="AM24">
-        <v>1</v>
+        <v>0.99139999999999995</v>
       </c>
       <c r="AN24">
-        <v>1</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="AO24">
-        <v>1</v>
+        <v>0.96760000000000002</v>
       </c>
       <c r="AP24">
-        <v>0.94969999999999999</v>
+        <v>0.2833</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>0.94530000000000003</v>
       </c>
       <c r="AR24">
-        <v>1</v>
+        <v>0.96789999999999998</v>
       </c>
       <c r="AS24">
-        <v>1</v>
+        <v>0.94489999999999996</v>
       </c>
       <c r="AT24">
-        <v>0.99980000000000002</v>
+        <v>0.86750000000000005</v>
       </c>
       <c r="AU24">
-        <v>0.84589999999999999</v>
+        <v>0.22270000000000001</v>
       </c>
       <c r="AV24">
-        <v>0.99909999999999999</v>
+        <v>0.55069999999999997</v>
       </c>
       <c r="AW24">
-        <v>1</v>
+        <v>0.97150000000000003</v>
       </c>
       <c r="AX24">
-        <v>1</v>
+        <v>0.99890000000000001</v>
       </c>
       <c r="AY24">
-        <v>1</v>
+        <v>0.44309999999999999</v>
       </c>
       <c r="AZ24">
-        <v>0.99980000000000002</v>
+        <v>0.51680000000000004</v>
       </c>
       <c r="BA24">
-        <v>1</v>
+        <v>0.62470000000000003</v>
       </c>
       <c r="BB24">
-        <v>1</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="BC24">
-        <v>0.99980000000000002</v>
+        <v>0.8014</v>
       </c>
       <c r="BD24">
-        <v>1</v>
+        <v>0.45079999999999998</v>
       </c>
       <c r="BE24">
-        <v>1</v>
+        <v>0.54659999999999997</v>
       </c>
       <c r="BF24">
-        <v>1</v>
+        <v>0.89939999999999998</v>
       </c>
       <c r="BG24">
-        <v>1</v>
+        <v>0.92849999999999999</v>
       </c>
       <c r="BH24">
-        <v>1</v>
+        <v>0.74809999999999999</v>
       </c>
       <c r="BI24">
-        <v>1</v>
+        <v>0.95579999999999998</v>
       </c>
       <c r="BJ24">
-        <v>1</v>
+        <v>0.1242</v>
       </c>
       <c r="BK24">
-        <v>1</v>
+        <v>0.77139999999999997</v>
       </c>
       <c r="BL24">
-        <v>1</v>
+        <v>0.89159999999999995</v>
       </c>
       <c r="BM24">
-        <v>1</v>
+        <v>0.66110000000000002</v>
       </c>
       <c r="BN24">
-        <v>1</v>
+        <v>0.89739999999999998</v>
       </c>
       <c r="BO24">
-        <v>0.99950000000000006</v>
+        <v>0.1867</v>
       </c>
       <c r="BP24">
-        <v>0.99950000000000006</v>
+        <v>0.46279999999999999</v>
       </c>
       <c r="BQ24">
-        <v>1</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="BR24">
-        <v>1</v>
+        <v>0.95950000000000002</v>
       </c>
       <c r="BS24">
-        <v>0.9758</v>
+        <v>0.88629999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AF25">
+        <v>1</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25">
+        <v>1</v>
+      </c>
+      <c r="AI25">
+        <v>1</v>
+      </c>
+      <c r="AJ25">
+        <v>1</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
+        <v>1</v>
+      </c>
+      <c r="AP25">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AR25">
+        <v>1</v>
+      </c>
+      <c r="AS25">
+        <v>1</v>
+      </c>
+      <c r="AT25">
+        <v>1</v>
+      </c>
+      <c r="AU25">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="AV25">
+        <v>1</v>
+      </c>
+      <c r="AW25">
+        <v>1</v>
+      </c>
+      <c r="AX25">
+        <v>1</v>
+      </c>
+      <c r="AY25">
+        <v>1</v>
+      </c>
+      <c r="AZ25">
+        <v>1</v>
+      </c>
+      <c r="BA25">
+        <v>1</v>
+      </c>
+      <c r="BB25">
+        <v>1</v>
+      </c>
+      <c r="BC25">
+        <v>1</v>
+      </c>
+      <c r="BD25">
+        <v>1</v>
+      </c>
+      <c r="BE25">
+        <v>1</v>
+      </c>
+      <c r="BF25">
+        <v>1</v>
+      </c>
+      <c r="BG25">
+        <v>1</v>
+      </c>
+      <c r="BH25">
+        <v>1</v>
+      </c>
+      <c r="BI25">
+        <v>1</v>
+      </c>
+      <c r="BJ25">
+        <v>0.97740000000000005</v>
+      </c>
+      <c r="BK25">
+        <v>1</v>
+      </c>
+      <c r="BL25">
+        <v>1</v>
+      </c>
+      <c r="BM25">
+        <v>1</v>
+      </c>
+      <c r="BN25">
+        <v>1</v>
+      </c>
+      <c r="BO25">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="BP25">
+        <v>1</v>
+      </c>
+      <c r="BQ25">
+        <v>1</v>
+      </c>
+      <c r="BR25">
+        <v>1</v>
+      </c>
+      <c r="BS25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="R25">
-        <v>1</v>
-      </c>
-      <c r="S25">
-        <v>1</v>
-      </c>
-      <c r="T25">
-        <v>1</v>
-      </c>
-      <c r="U25">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="V25">
-        <v>1</v>
-      </c>
-      <c r="W25">
-        <v>1</v>
-      </c>
-      <c r="X25">
-        <v>1</v>
-      </c>
-      <c r="Y25">
-        <v>1</v>
-      </c>
-      <c r="Z25">
-        <v>1</v>
-      </c>
-      <c r="AA25">
-        <v>1</v>
-      </c>
-      <c r="AB25">
-        <v>1</v>
-      </c>
-      <c r="AC25">
-        <v>1</v>
-      </c>
-      <c r="AD25">
-        <v>1</v>
-      </c>
-      <c r="AE25">
-        <v>1</v>
-      </c>
-      <c r="AF25">
-        <v>1</v>
-      </c>
-      <c r="AG25">
-        <v>1</v>
-      </c>
-      <c r="AH25">
-        <v>1</v>
-      </c>
-      <c r="AI25">
-        <v>1</v>
-      </c>
-      <c r="AJ25">
-        <v>1</v>
-      </c>
-      <c r="AK25">
-        <v>1</v>
-      </c>
-      <c r="AL25">
-        <v>1</v>
-      </c>
-      <c r="AM25">
-        <v>1</v>
-      </c>
-      <c r="AN25">
-        <v>1</v>
-      </c>
-      <c r="AO25">
-        <v>1</v>
-      </c>
-      <c r="AP25">
-        <v>0.99970000000000003</v>
-      </c>
-      <c r="AQ25">
-        <v>1</v>
-      </c>
-      <c r="AR25">
-        <v>1</v>
-      </c>
-      <c r="AS25">
-        <v>1</v>
-      </c>
-      <c r="AT25">
-        <v>1</v>
-      </c>
-      <c r="AU25">
-        <v>0.99150000000000005</v>
-      </c>
-      <c r="AV25">
-        <v>1</v>
-      </c>
-      <c r="AW25">
-        <v>1</v>
-      </c>
-      <c r="AX25">
-        <v>1</v>
-      </c>
-      <c r="AY25">
-        <v>1</v>
-      </c>
-      <c r="AZ25">
-        <v>1</v>
-      </c>
-      <c r="BA25">
-        <v>1</v>
-      </c>
-      <c r="BB25">
-        <v>1</v>
-      </c>
-      <c r="BC25">
-        <v>1</v>
-      </c>
-      <c r="BD25">
-        <v>1</v>
-      </c>
-      <c r="BE25">
-        <v>1</v>
-      </c>
-      <c r="BF25">
-        <v>1</v>
-      </c>
-      <c r="BG25">
-        <v>1</v>
-      </c>
-      <c r="BH25">
-        <v>1</v>
-      </c>
-      <c r="BI25">
-        <v>1</v>
-      </c>
-      <c r="BJ25">
-        <v>1</v>
-      </c>
-      <c r="BK25">
-        <v>1</v>
-      </c>
-      <c r="BL25">
-        <v>1</v>
-      </c>
-      <c r="BM25">
-        <v>1</v>
-      </c>
-      <c r="BN25">
-        <v>1</v>
-      </c>
-      <c r="BO25">
-        <v>1</v>
-      </c>
-      <c r="BP25">
-        <v>1</v>
-      </c>
-      <c r="BQ25">
-        <v>1</v>
-      </c>
-      <c r="BR25">
-        <v>1</v>
-      </c>
-      <c r="BS25">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
+      </c>
+      <c r="AC26">
+        <v>1</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AF26">
+        <v>1</v>
+      </c>
+      <c r="AG26">
+        <v>1</v>
+      </c>
+      <c r="AH26">
+        <v>1</v>
+      </c>
+      <c r="AI26">
+        <v>1</v>
+      </c>
+      <c r="AJ26">
+        <v>1</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
+        <v>1</v>
+      </c>
+      <c r="AP26">
+        <v>1</v>
+      </c>
+      <c r="AQ26">
+        <v>1</v>
+      </c>
+      <c r="AR26">
+        <v>1</v>
+      </c>
+      <c r="AS26">
+        <v>1</v>
+      </c>
+      <c r="AT26">
+        <v>1</v>
+      </c>
+      <c r="AU26">
+        <v>1</v>
+      </c>
+      <c r="AV26">
+        <v>1</v>
+      </c>
+      <c r="AW26">
+        <v>1</v>
+      </c>
+      <c r="AX26">
+        <v>1</v>
+      </c>
+      <c r="AY26">
+        <v>1</v>
+      </c>
+      <c r="AZ26">
+        <v>1</v>
+      </c>
+      <c r="BA26">
+        <v>1</v>
+      </c>
+      <c r="BB26">
+        <v>1</v>
+      </c>
+      <c r="BC26">
+        <v>1</v>
+      </c>
+      <c r="BD26">
+        <v>1</v>
+      </c>
+      <c r="BE26">
+        <v>1</v>
+      </c>
+      <c r="BF26">
+        <v>1</v>
+      </c>
+      <c r="BG26">
+        <v>1</v>
+      </c>
+      <c r="BH26">
+        <v>1</v>
+      </c>
+      <c r="BI26">
+        <v>1</v>
+      </c>
+      <c r="BJ26">
+        <v>1</v>
+      </c>
+      <c r="BK26">
+        <v>1</v>
+      </c>
+      <c r="BL26">
+        <v>1</v>
+      </c>
+      <c r="BM26">
+        <v>1</v>
+      </c>
+      <c r="BN26">
+        <v>1</v>
+      </c>
+      <c r="BO26">
+        <v>1</v>
+      </c>
+      <c r="BP26">
+        <v>1</v>
+      </c>
+      <c r="BQ26">
+        <v>1</v>
+      </c>
+      <c r="BR26">
+        <v>1</v>
+      </c>
+      <c r="BS26">
         <v>1</v>
       </c>
     </row>
@@ -4836,863 +4836,863 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29">
-        <v>0.16439999999999999</v>
-      </c>
-      <c r="C29">
-        <v>0.59919999999999995</v>
-      </c>
-      <c r="D29">
-        <v>0.31390000000000001</v>
-      </c>
-      <c r="E29">
-        <v>-0.6502</v>
-      </c>
-      <c r="F29">
-        <v>1.8136000000000001</v>
-      </c>
-      <c r="G29">
-        <v>-0.1981</v>
-      </c>
-      <c r="H29">
-        <v>0.93189999999999995</v>
-      </c>
-      <c r="I29">
-        <v>0.34279999999999999</v>
-      </c>
-      <c r="J29">
-        <v>0.79820000000000002</v>
-      </c>
-      <c r="K29">
-        <v>1.9563999999999999</v>
-      </c>
-      <c r="L29">
-        <v>-0.25380000000000003</v>
-      </c>
-      <c r="M29">
-        <v>0.3725</v>
-      </c>
-      <c r="N29">
-        <v>0.88970000000000005</v>
-      </c>
-      <c r="O29">
-        <v>2.3243999999999998</v>
-      </c>
-      <c r="P29">
-        <v>-2.6200000000000001E-2</v>
-      </c>
-      <c r="Q29">
-        <v>-0.2702</v>
-      </c>
-      <c r="R29">
-        <v>0.627</v>
-      </c>
-      <c r="S29">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="T29">
-        <v>2.2181000000000002</v>
-      </c>
-      <c r="U29">
-        <v>-1.3142</v>
-      </c>
-      <c r="V29">
-        <v>0.42509999999999998</v>
-      </c>
-      <c r="W29">
-        <v>1.0871</v>
-      </c>
-      <c r="X29">
-        <v>1.6188</v>
-      </c>
-      <c r="Y29">
-        <v>1.6372</v>
-      </c>
-      <c r="Z29">
-        <v>-1.1306</v>
-      </c>
-      <c r="AA29">
-        <v>0.52849999999999997</v>
-      </c>
-      <c r="AB29">
-        <v>1.0103</v>
-      </c>
-      <c r="AC29">
-        <v>1.3084</v>
-      </c>
-      <c r="AD29">
-        <v>2.5840999999999998</v>
-      </c>
-      <c r="AE29">
-        <v>0.8196</v>
-      </c>
-      <c r="AF29">
-        <v>0.74590000000000001</v>
-      </c>
-      <c r="AG29">
-        <v>1.3172999999999999</v>
-      </c>
-      <c r="AH29">
-        <v>2.2250999999999999</v>
-      </c>
-      <c r="AI29">
-        <v>3.1459000000000001</v>
-      </c>
-      <c r="AJ29">
-        <v>1.3392999999999999</v>
-      </c>
-      <c r="AK29">
-        <v>0.82779999999999998</v>
-      </c>
-      <c r="AL29">
-        <v>0.33889999999999998</v>
-      </c>
-      <c r="AM29">
-        <v>-3.78E-2</v>
-      </c>
-      <c r="AN29">
-        <v>2.0855999999999999</v>
-      </c>
-      <c r="AO29">
-        <v>0.36270000000000002</v>
-      </c>
-      <c r="AP29">
-        <v>-1.3386</v>
-      </c>
-      <c r="AQ29">
-        <v>1.0206</v>
-      </c>
-      <c r="AR29">
-        <v>-0.18060000000000001</v>
-      </c>
-      <c r="AS29">
-        <v>1.3898999999999999</v>
-      </c>
-      <c r="AT29">
-        <v>-0.51600000000000001</v>
-      </c>
-      <c r="AU29">
-        <v>-1.6413</v>
-      </c>
-      <c r="AV29">
-        <v>-0.79679999999999995</v>
-      </c>
-      <c r="AW29">
-        <v>2.0889000000000002</v>
-      </c>
-      <c r="AX29">
-        <v>2.3873000000000002</v>
-      </c>
-      <c r="AY29">
-        <v>-0.19400000000000001</v>
-      </c>
-      <c r="AZ29">
-        <v>-0.50449999999999995</v>
-      </c>
-      <c r="BA29">
-        <v>-0.14019999999999999</v>
-      </c>
-      <c r="BB29">
-        <v>1.2273000000000001</v>
-      </c>
-      <c r="BC29">
-        <v>-0.47310000000000002</v>
-      </c>
-      <c r="BD29">
-        <v>8.1600000000000006E-2</v>
-      </c>
-      <c r="BE29">
-        <v>-0.1227</v>
-      </c>
-      <c r="BF29">
-        <v>1.5177</v>
-      </c>
-      <c r="BG29">
-        <v>0.90590000000000004</v>
-      </c>
-      <c r="BH29">
-        <v>1.1493</v>
-      </c>
-      <c r="BI29">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="BJ29">
-        <v>0.24479999999999999</v>
-      </c>
-      <c r="BK29">
-        <v>1.8212999999999999</v>
-      </c>
-      <c r="BL29">
-        <v>2.391</v>
-      </c>
-      <c r="BM29">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="BN29">
-        <v>0.1095</v>
-      </c>
-      <c r="BO29">
-        <v>-0.68400000000000005</v>
-      </c>
-      <c r="BP29">
-        <v>-0.7026</v>
-      </c>
-      <c r="BQ29">
-        <v>0.66139999999999999</v>
-      </c>
-      <c r="BR29">
-        <v>1.7927999999999999</v>
-      </c>
-      <c r="BS29">
-        <v>-1.2040999999999999</v>
-      </c>
-    </row>
     <row r="30" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30">
-        <v>0.43440000000000001</v>
+        <v>0.73729999999999996</v>
       </c>
       <c r="C30">
-        <v>0.2782</v>
+        <v>-0.1067</v>
       </c>
       <c r="D30">
-        <v>0.37069999999999997</v>
+        <v>0.72019999999999995</v>
       </c>
       <c r="E30">
-        <v>0.74209999999999998</v>
+        <v>-0.10639999999999999</v>
       </c>
       <c r="F30">
-        <v>3.6299999999999999E-2</v>
+        <v>0.45319999999999999</v>
       </c>
       <c r="G30">
-        <v>0.58089999999999997</v>
+        <v>0.91579999999999995</v>
       </c>
       <c r="H30">
-        <v>0.18010000000000001</v>
+        <v>0.20619999999999999</v>
       </c>
       <c r="I30">
-        <v>0.36080000000000001</v>
+        <v>0.62990000000000002</v>
       </c>
       <c r="J30">
-        <v>0.2117</v>
+        <v>1.3379000000000001</v>
       </c>
       <c r="K30">
-        <v>2.93E-2</v>
+        <v>-0.19239999999999999</v>
       </c>
       <c r="L30">
-        <v>0.60199999999999998</v>
+        <v>0.52180000000000004</v>
       </c>
       <c r="M30">
-        <v>0.36359999999999998</v>
+        <v>-4.0399999999999998E-2</v>
       </c>
       <c r="N30">
-        <v>0.18529999999999999</v>
+        <v>1.3046</v>
       </c>
       <c r="O30">
-        <v>1.12E-2</v>
+        <v>2.5424000000000002</v>
       </c>
       <c r="P30">
-        <v>0.50890000000000002</v>
+        <v>0.32240000000000002</v>
       </c>
       <c r="Q30">
-        <v>0.60199999999999998</v>
+        <v>-0.68620000000000003</v>
       </c>
       <c r="R30">
-        <v>0.2661</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="S30">
-        <v>0.25619999999999998</v>
+        <v>2.7639</v>
       </c>
       <c r="T30">
-        <v>1.43E-2</v>
+        <v>3.3090999999999999</v>
       </c>
       <c r="U30">
-        <v>0.90239999999999998</v>
+        <v>-3.95E-2</v>
       </c>
       <c r="V30">
-        <v>0.32900000000000001</v>
+        <v>-0.48249999999999998</v>
       </c>
       <c r="W30">
-        <v>0.14219999999999999</v>
+        <v>0.44269999999999998</v>
       </c>
       <c r="X30">
-        <v>5.74E-2</v>
+        <v>1.5933999999999999</v>
       </c>
       <c r="Y30">
-        <v>4.7600000000000003E-2</v>
+        <v>2.1156000000000001</v>
       </c>
       <c r="Z30">
-        <v>0.86339999999999995</v>
+        <v>0.52490000000000003</v>
       </c>
       <c r="AA30">
-        <v>0.29509999999999997</v>
+        <v>0.27879999999999999</v>
       </c>
       <c r="AB30">
-        <v>0.15890000000000001</v>
+        <v>0.79220000000000002</v>
       </c>
       <c r="AC30">
-        <v>9.6799999999999997E-2</v>
+        <v>2.3319999999999999</v>
       </c>
       <c r="AD30">
-        <v>7.1000000000000004E-3</v>
+        <v>2.0314999999999999</v>
       </c>
       <c r="AE30">
-        <v>0.20930000000000001</v>
+        <v>1.5787</v>
       </c>
       <c r="AF30">
-        <v>0.2286</v>
+        <v>0.1009</v>
       </c>
       <c r="AG30">
-        <v>0.1026</v>
+        <v>2.4863</v>
       </c>
       <c r="AH30">
-        <v>1.54E-2</v>
+        <v>2.6219999999999999</v>
       </c>
       <c r="AI30">
-        <v>1.6000000000000001E-3</v>
+        <v>2.1808000000000001</v>
       </c>
       <c r="AJ30">
-        <v>9.5600000000000004E-2</v>
+        <v>1.6263000000000001</v>
       </c>
       <c r="AK30">
-        <v>0.20449999999999999</v>
+        <v>0.10879999999999999</v>
       </c>
       <c r="AL30">
-        <v>0.38340000000000002</v>
+        <v>0.59209999999999996</v>
       </c>
       <c r="AM30">
-        <v>0.50819999999999999</v>
+        <v>2.4662000000000002</v>
       </c>
       <c r="AN30">
-        <v>1.8100000000000002E-2</v>
+        <v>1.6082000000000001</v>
       </c>
       <c r="AO30">
-        <v>0.36109999999999998</v>
+        <v>1.8967000000000001</v>
       </c>
       <c r="AP30">
-        <v>0.90469999999999995</v>
+        <v>-0.61</v>
       </c>
       <c r="AQ30">
-        <v>0.15260000000000001</v>
+        <v>1.6435</v>
       </c>
       <c r="AR30">
-        <v>0.56569999999999998</v>
+        <v>1.8626</v>
       </c>
       <c r="AS30">
-        <v>8.6999999999999994E-2</v>
+        <v>1.6518999999999999</v>
       </c>
       <c r="AT30">
-        <v>0.68540000000000001</v>
+        <v>1.1272</v>
       </c>
       <c r="AU30">
-        <v>0.94510000000000005</v>
+        <v>-0.76649999999999996</v>
       </c>
       <c r="AV30">
-        <v>0.78159999999999996</v>
+        <v>0.1308</v>
       </c>
       <c r="AW30">
-        <v>2.07E-2</v>
+        <v>1.9463999999999999</v>
       </c>
       <c r="AX30">
-        <v>1.01E-2</v>
+        <v>3.0373999999999999</v>
       </c>
       <c r="AY30">
-        <v>0.57699999999999996</v>
+        <v>-0.1215</v>
       </c>
       <c r="AZ30">
-        <v>0.68930000000000002</v>
+        <v>4.58E-2</v>
       </c>
       <c r="BA30">
-        <v>0.55640000000000001</v>
+        <v>0.3362</v>
       </c>
       <c r="BB30">
-        <v>0.1099</v>
+        <v>0.76439999999999997</v>
       </c>
       <c r="BC30">
-        <v>0.67900000000000005</v>
+        <v>0.83289999999999997</v>
       </c>
       <c r="BD30">
-        <v>0.4698</v>
+        <v>-0.11840000000000001</v>
       </c>
       <c r="BE30">
-        <v>0.55359999999999998</v>
+        <v>0.114</v>
       </c>
       <c r="BF30">
-        <v>6.6000000000000003E-2</v>
+        <v>1.3162</v>
       </c>
       <c r="BG30">
-        <v>0.18859999999999999</v>
+        <v>1.5097</v>
       </c>
       <c r="BH30">
-        <v>0.13089999999999999</v>
+        <v>0.69379999999999997</v>
       </c>
       <c r="BI30">
-        <v>0.1804</v>
+        <v>1.7687999999999999</v>
       </c>
       <c r="BJ30">
-        <v>0.40400000000000003</v>
+        <v>-1.1876</v>
       </c>
       <c r="BK30">
-        <v>3.7199999999999997E-2</v>
+        <v>0.74960000000000004</v>
       </c>
       <c r="BL30">
-        <v>1.23E-2</v>
+        <v>1.2453000000000001</v>
       </c>
       <c r="BM30">
-        <v>0.29820000000000002</v>
+        <v>0.42449999999999999</v>
       </c>
       <c r="BN30">
-        <v>0.45500000000000002</v>
+        <v>1.2912999999999999</v>
       </c>
       <c r="BO30">
-        <v>0.75280000000000002</v>
+        <v>-0.90029999999999999</v>
       </c>
       <c r="BP30">
-        <v>0.74890000000000001</v>
+        <v>-8.7400000000000005E-2</v>
       </c>
       <c r="BQ30">
-        <v>0.25280000000000002</v>
+        <v>1.4016999999999999</v>
       </c>
       <c r="BR30">
-        <v>3.9199999999999999E-2</v>
+        <v>1.7813000000000001</v>
       </c>
       <c r="BS30">
-        <v>0.88600000000000001</v>
+        <v>1.2128000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0.23219999999999999</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0.53610000000000002</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0.2369</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0.54810000000000003</v>
       </c>
       <c r="F31">
-        <v>0.74660000000000004</v>
+        <v>0.34229999999999999</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0.1779</v>
       </c>
       <c r="H31">
-        <v>0.99450000000000005</v>
+        <v>0.41849999999999998</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0.26569999999999999</v>
       </c>
       <c r="J31">
-        <v>0.99790000000000001</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="K31">
-        <v>0.65449999999999997</v>
+        <v>0.58189999999999997</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.30840000000000001</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>0.51519999999999999</v>
       </c>
       <c r="N31">
-        <v>0.99539999999999995</v>
+        <v>9.6799999999999997E-2</v>
       </c>
       <c r="O31">
-        <v>0.40179999999999999</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>0.37790000000000001</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>0.75249999999999995</v>
       </c>
       <c r="R31">
-        <v>0.99970000000000003</v>
+        <v>0.23369999999999999</v>
       </c>
       <c r="S31">
-        <v>0.99939999999999996</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="T31">
-        <v>0.47310000000000002</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>0.51949999999999996</v>
       </c>
       <c r="V31">
-        <v>1</v>
+        <v>0.67769999999999997</v>
       </c>
       <c r="W31">
-        <v>0.98570000000000002</v>
+        <v>0.32429999999999998</v>
       </c>
       <c r="X31">
-        <v>0.85089999999999999</v>
+        <v>6.1699999999999998E-2</v>
       </c>
       <c r="Y31">
-        <v>0.84219999999999995</v>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>0.30370000000000003</v>
       </c>
       <c r="AA31">
-        <v>1</v>
+        <v>0.38569999999999999</v>
       </c>
       <c r="AB31">
-        <v>0.99150000000000005</v>
+        <v>0.22259999999999999</v>
       </c>
       <c r="AC31">
-        <v>0.95330000000000004</v>
+        <v>1.14E-2</v>
       </c>
       <c r="AD31">
-        <v>0.25080000000000002</v>
+        <v>2.2800000000000001E-2</v>
       </c>
       <c r="AE31">
-        <v>0.99750000000000005</v>
+        <v>6.0100000000000001E-2</v>
       </c>
       <c r="AF31">
-        <v>0.99860000000000004</v>
+        <v>0.46339999999999998</v>
       </c>
       <c r="AG31">
-        <v>0.95150000000000001</v>
+        <v>8.6E-3</v>
       </c>
       <c r="AH31">
-        <v>0.46870000000000001</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="AI31">
-        <v>6.8400000000000002E-2</v>
+        <v>1.66E-2</v>
       </c>
       <c r="AJ31">
-        <v>0.94699999999999995</v>
+        <v>5.4600000000000003E-2</v>
       </c>
       <c r="AK31">
-        <v>0.99729999999999996</v>
+        <v>0.45450000000000002</v>
       </c>
       <c r="AL31">
-        <v>1</v>
+        <v>0.2828</v>
       </c>
       <c r="AM31">
-        <v>1</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="AN31">
-        <v>0.56289999999999996</v>
+        <v>6.1100000000000002E-2</v>
       </c>
       <c r="AO31">
-        <v>1</v>
+        <v>3.2500000000000001E-2</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>0.71679999999999999</v>
       </c>
       <c r="AQ31">
-        <v>0.99070000000000003</v>
+        <v>5.4800000000000001E-2</v>
       </c>
       <c r="AR31">
-        <v>1</v>
+        <v>3.2199999999999999E-2</v>
       </c>
       <c r="AS31">
-        <v>0.93379999999999996</v>
+        <v>5.5199999999999999E-2</v>
       </c>
       <c r="AT31">
-        <v>1</v>
+        <v>0.1326</v>
       </c>
       <c r="AU31">
-        <v>1</v>
+        <v>0.77739999999999998</v>
       </c>
       <c r="AV31">
-        <v>1</v>
+        <v>0.44940000000000002</v>
       </c>
       <c r="AW31">
-        <v>0.56120000000000003</v>
+        <v>2.86E-2</v>
       </c>
       <c r="AX31">
-        <v>0.3619</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="AY31">
-        <v>1</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="AZ31">
-        <v>1</v>
+        <v>0.48330000000000001</v>
       </c>
       <c r="BA31">
-        <v>1</v>
+        <v>0.37540000000000001</v>
       </c>
       <c r="BB31">
-        <v>0.96909999999999996</v>
+        <v>0.22209999999999999</v>
       </c>
       <c r="BC31">
-        <v>1</v>
+        <v>0.19869999999999999</v>
       </c>
       <c r="BD31">
-        <v>1</v>
+        <v>0.54930000000000001</v>
       </c>
       <c r="BE31">
-        <v>1</v>
+        <v>0.45350000000000001</v>
       </c>
       <c r="BF31">
-        <v>0.8931</v>
+        <v>0.1007</v>
       </c>
       <c r="BG31">
-        <v>0.99519999999999997</v>
+        <v>7.1599999999999997E-2</v>
       </c>
       <c r="BH31">
-        <v>0.97940000000000005</v>
+        <v>0.252</v>
       </c>
       <c r="BI31">
-        <v>0.99509999999999998</v>
+        <v>4.4299999999999999E-2</v>
       </c>
       <c r="BJ31">
-        <v>1</v>
+        <v>0.87590000000000001</v>
       </c>
       <c r="BK31">
-        <v>0.74219999999999997</v>
+        <v>0.22869999999999999</v>
       </c>
       <c r="BL31">
-        <v>0.35920000000000002</v>
+        <v>0.1085</v>
       </c>
       <c r="BM31">
-        <v>1</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="BN31">
-        <v>1</v>
+        <v>0.1027</v>
       </c>
       <c r="BO31">
-        <v>1</v>
+        <v>0.81340000000000001</v>
       </c>
       <c r="BP31">
-        <v>1</v>
+        <v>0.5373</v>
       </c>
       <c r="BQ31">
-        <v>0.99950000000000006</v>
+        <v>8.4099999999999994E-2</v>
       </c>
       <c r="BR31">
-        <v>0.75800000000000001</v>
+        <v>4.0599999999999997E-2</v>
       </c>
       <c r="BS31">
-        <v>1</v>
+        <v>0.1138</v>
       </c>
     </row>
     <row r="32" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0.94810000000000005</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>0.95569999999999999</v>
+      </c>
+      <c r="O32">
+        <v>0.26950000000000002</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="S32">
+        <v>0.17219999999999999</v>
+      </c>
+      <c r="T32">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="Y32">
+        <v>0.54239999999999999</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AB32">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="AC32">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="AD32">
+        <v>0.5998</v>
+      </c>
+      <c r="AE32">
+        <v>0.86870000000000003</v>
+      </c>
+      <c r="AF32">
+        <v>1</v>
+      </c>
+      <c r="AG32">
+        <v>0.2989</v>
+      </c>
+      <c r="AH32">
+        <v>0.2321</v>
+      </c>
+      <c r="AI32">
+        <v>0.49759999999999999</v>
+      </c>
+      <c r="AJ32">
+        <v>0.84589999999999999</v>
+      </c>
+      <c r="AK32">
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
+        <v>0.31059999999999999</v>
+      </c>
+      <c r="AN32">
+        <v>0.85570000000000002</v>
+      </c>
+      <c r="AO32">
+        <v>0.68659999999999999</v>
+      </c>
+      <c r="AP32">
+        <v>1</v>
+      </c>
+      <c r="AQ32">
+        <v>0.83789999999999998</v>
+      </c>
+      <c r="AR32">
+        <v>0.71009999999999995</v>
+      </c>
+      <c r="AS32">
+        <v>0.83450000000000002</v>
+      </c>
+      <c r="AT32">
+        <v>0.98270000000000002</v>
+      </c>
+      <c r="AU32">
+        <v>1</v>
+      </c>
+      <c r="AV32">
+        <v>1</v>
+      </c>
+      <c r="AW32">
+        <v>0.65590000000000004</v>
+      </c>
+      <c r="AX32">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="AY32">
+        <v>1</v>
+      </c>
+      <c r="AZ32">
+        <v>1</v>
+      </c>
+      <c r="BA32">
+        <v>1</v>
+      </c>
+      <c r="BB32">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="BC32">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="BD32">
+        <v>1</v>
+      </c>
+      <c r="BE32">
+        <v>1</v>
+      </c>
+      <c r="BF32">
+        <v>0.95389999999999997</v>
+      </c>
+      <c r="BG32">
+        <v>0.89810000000000001</v>
+      </c>
+      <c r="BH32">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="BI32">
+        <v>0.7681</v>
+      </c>
+      <c r="BJ32">
+        <v>1</v>
+      </c>
+      <c r="BK32">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="BL32">
+        <v>0.96589999999999998</v>
+      </c>
+      <c r="BM32">
+        <v>1</v>
+      </c>
+      <c r="BN32">
+        <v>0.95820000000000005</v>
+      </c>
+      <c r="BO32">
+        <v>1</v>
+      </c>
+      <c r="BP32">
+        <v>1</v>
+      </c>
+      <c r="BQ32">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="BR32">
+        <v>0.75980000000000003</v>
+      </c>
+      <c r="BS32">
+        <v>0.97119999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>26</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0.96279999999999999</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>0.91449999999999998</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0.65769999999999995</v>
-      </c>
-      <c r="P32">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-      <c r="R32">
-        <v>1</v>
-      </c>
-      <c r="S32">
-        <v>1</v>
-      </c>
-      <c r="T32">
-        <v>0.74439999999999995</v>
-      </c>
-      <c r="U32">
-        <v>1</v>
-      </c>
-      <c r="V32">
-        <v>1</v>
-      </c>
-      <c r="W32">
-        <v>1</v>
-      </c>
-      <c r="X32">
-        <v>0.99280000000000002</v>
-      </c>
-      <c r="Y32">
-        <v>0.99170000000000003</v>
-      </c>
-      <c r="Z32">
-        <v>1</v>
-      </c>
-      <c r="AA32">
-        <v>1</v>
-      </c>
-      <c r="AB32">
-        <v>1</v>
-      </c>
-      <c r="AC32">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="O33">
+        <v>0.47310000000000002</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>0.3196</v>
+      </c>
+      <c r="T33">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="Y33">
+        <v>0.81459999999999999</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+      <c r="AA33">
+        <v>1</v>
+      </c>
+      <c r="AB33">
+        <v>1</v>
+      </c>
+      <c r="AC33">
+        <v>0.64510000000000001</v>
+      </c>
+      <c r="AD33">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="AE33">
+        <v>0.99219999999999997</v>
+      </c>
+      <c r="AF33">
+        <v>1</v>
+      </c>
+      <c r="AG33">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="AH33">
+        <v>0.41610000000000003</v>
+      </c>
+      <c r="AI33">
+        <v>0.76549999999999996</v>
+      </c>
+      <c r="AJ33">
+        <v>0.98850000000000005</v>
+      </c>
+      <c r="AK33">
+        <v>1</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
+        <v>0.53469999999999995</v>
+      </c>
+      <c r="AN33">
+        <v>0.99029999999999996</v>
+      </c>
+      <c r="AO33">
+        <v>0.92710000000000004</v>
+      </c>
+      <c r="AP33">
+        <v>1</v>
+      </c>
+      <c r="AQ33">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="AR33">
+        <v>0.93969999999999998</v>
+      </c>
+      <c r="AS33">
+        <v>0.98580000000000001</v>
+      </c>
+      <c r="AT33">
+        <v>1</v>
+      </c>
+      <c r="AU33">
+        <v>1</v>
+      </c>
+      <c r="AV33">
+        <v>1</v>
+      </c>
+      <c r="AW33">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="AX33">
+        <v>0.1709</v>
+      </c>
+      <c r="AY33">
+        <v>1</v>
+      </c>
+      <c r="AZ33">
+        <v>1</v>
+      </c>
+      <c r="BA33">
+        <v>1</v>
+      </c>
+      <c r="BB33">
+        <v>1</v>
+      </c>
+      <c r="BC33">
+        <v>1</v>
+      </c>
+      <c r="BD33">
+        <v>1</v>
+      </c>
+      <c r="BE33">
+        <v>1</v>
+      </c>
+      <c r="BF33">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="BG33">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="BH33">
+        <v>1</v>
+      </c>
+      <c r="BI33">
+        <v>0.96619999999999995</v>
+      </c>
+      <c r="BJ33">
+        <v>1</v>
+      </c>
+      <c r="BK33">
+        <v>1</v>
+      </c>
+      <c r="BL33">
+        <v>1</v>
+      </c>
+      <c r="BM33">
+        <v>1</v>
+      </c>
+      <c r="BN33">
         <v>0.99980000000000002</v>
       </c>
-      <c r="AD32">
-        <v>0.4461</v>
-      </c>
-      <c r="AE32">
-        <v>1</v>
-      </c>
-      <c r="AF32">
-        <v>1</v>
-      </c>
-      <c r="AG32">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="AH32">
-        <v>0.74019999999999997</v>
-      </c>
-      <c r="AI32">
-        <v>0.13089999999999999</v>
-      </c>
-      <c r="AJ32">
-        <v>0.99970000000000003</v>
-      </c>
-      <c r="AK32">
-        <v>1</v>
-      </c>
-      <c r="AL32">
-        <v>1</v>
-      </c>
-      <c r="AM32">
-        <v>1</v>
-      </c>
-      <c r="AN32">
-        <v>0.83840000000000003</v>
-      </c>
-      <c r="AO32">
-        <v>1</v>
-      </c>
-      <c r="AP32">
-        <v>1</v>
-      </c>
-      <c r="AQ32">
-        <v>1</v>
-      </c>
-      <c r="AR32">
-        <v>1</v>
-      </c>
-      <c r="AS32">
-        <v>0.99970000000000003</v>
-      </c>
-      <c r="AT32">
-        <v>1</v>
-      </c>
-      <c r="AU32">
-        <v>1</v>
-      </c>
-      <c r="AV32">
-        <v>1</v>
-      </c>
-      <c r="AW32">
-        <v>0.83650000000000002</v>
-      </c>
-      <c r="AX32">
-        <v>0.60750000000000004</v>
-      </c>
-      <c r="AY32">
-        <v>1</v>
-      </c>
-      <c r="AZ32">
-        <v>1</v>
-      </c>
-      <c r="BA32">
-        <v>1</v>
-      </c>
-      <c r="BB32">
-        <v>1</v>
-      </c>
-      <c r="BC32">
-        <v>1</v>
-      </c>
-      <c r="BD32">
-        <v>1</v>
-      </c>
-      <c r="BE32">
-        <v>1</v>
-      </c>
-      <c r="BF32">
-        <v>0.99719999999999998</v>
-      </c>
-      <c r="BG32">
-        <v>1</v>
-      </c>
-      <c r="BH32">
-        <v>1</v>
-      </c>
-      <c r="BI32">
-        <v>1</v>
-      </c>
-      <c r="BJ32">
-        <v>1</v>
-      </c>
-      <c r="BK32">
-        <v>0.96040000000000003</v>
-      </c>
-      <c r="BL32">
-        <v>0.60440000000000005</v>
-      </c>
-      <c r="BM32">
-        <v>1</v>
-      </c>
-      <c r="BN32">
-        <v>1</v>
-      </c>
-      <c r="BO32">
-        <v>1</v>
-      </c>
-      <c r="BP32">
-        <v>1</v>
-      </c>
-      <c r="BQ32">
-        <v>1</v>
-      </c>
-      <c r="BR32">
-        <v>0.9677</v>
-      </c>
-      <c r="BS32">
+      <c r="BO33">
+        <v>1</v>
+      </c>
+      <c r="BP33">
+        <v>1</v>
+      </c>
+      <c r="BQ33">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="BR33">
+        <v>0.96350000000000002</v>
+      </c>
+      <c r="BS33">
         <v>1</v>
       </c>
     </row>

--- a/derivatives/h1-1_palm/h1-1_results.xlsx
+++ b/derivatives/h1-1_palm/h1-1_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/istart-eyeballs/derivatives/h1-1_palm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{725B6E51-A57B-CF49-8C37-7CB77284AD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{858720DF-B528-8244-B07A-888C4ADFE41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28780" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -963,15 +963,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+      <selection activeCell="A15" sqref="A15:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
@@ -1451,480 +1453,480 @@
         <v>1</v>
       </c>
     </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+    </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>-0.92989999999999995</v>
+      </c>
+      <c r="C18">
+        <v>-1.2110000000000001</v>
+      </c>
+      <c r="D18">
+        <v>-2.2456999999999998</v>
+      </c>
+      <c r="E18">
+        <v>-3.0240999999999998</v>
+      </c>
+      <c r="F18">
+        <v>-2.2370000000000001</v>
+      </c>
+      <c r="G18">
+        <v>-3.3007</v>
+      </c>
+      <c r="H18">
+        <v>-3.9773999999999998</v>
+      </c>
+      <c r="I18">
+        <v>-3.4068999999999998</v>
+      </c>
+      <c r="J18">
+        <v>-3.2854000000000001</v>
+      </c>
+      <c r="K18">
+        <v>-1.8368</v>
+      </c>
+      <c r="L18">
+        <v>-0.81879999999999997</v>
+      </c>
+      <c r="M18">
+        <v>-2.5173000000000001</v>
+      </c>
+      <c r="N18">
+        <v>-1.1488</v>
+      </c>
+      <c r="O18">
+        <v>-1.3454999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="C19">
+        <v>0.8821</v>
+      </c>
+      <c r="D19">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="E19">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="F19">
+        <v>0.98580000000000001</v>
+      </c>
+      <c r="G19">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="H19">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="I19">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="J19">
+        <v>0.999</v>
+      </c>
+      <c r="K19">
+        <v>0.96389999999999998</v>
+      </c>
+      <c r="L19">
+        <v>0.78390000000000004</v>
+      </c>
+      <c r="M19">
+        <v>0.99070000000000003</v>
+      </c>
+      <c r="N19">
+        <v>0.86829999999999996</v>
+      </c>
+      <c r="O19">
+        <v>0.9103</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>-0.92989999999999995</v>
+        <v>0.99839999999999995</v>
       </c>
       <c r="C20">
-        <v>-1.2110000000000001</v>
+        <v>0.99939999999999996</v>
       </c>
       <c r="D20">
-        <v>-2.2456999999999998</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>-3.0240999999999998</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>-2.2370000000000001</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>-3.3007</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>-3.9773999999999998</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>-3.4068999999999998</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>-3.2854000000000001</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>-1.8368</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>-0.81879999999999997</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="M20">
-        <v>-2.5173000000000001</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>-1.1488</v>
+        <v>0.99919999999999998</v>
       </c>
       <c r="O20">
-        <v>-1.3454999999999999</v>
+        <v>0.99950000000000006</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B21">
-        <v>0.81359999999999999</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>0.8821</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0.98499999999999999</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0.99839999999999995</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.98580000000000001</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.99960000000000004</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0.99980000000000002</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0.99929999999999997</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>0.96389999999999998</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.78390000000000004</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.99070000000000003</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>0.86829999999999996</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.9103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <v>0.99839999999999995</v>
-      </c>
-      <c r="C22">
-        <v>0.99939999999999996</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.99760000000000004</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>0.99919999999999998</v>
-      </c>
-      <c r="O22">
-        <v>0.99950000000000006</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="C25">
+        <v>1.2110000000000001</v>
+      </c>
+      <c r="D25">
+        <v>2.2456999999999998</v>
+      </c>
+      <c r="E25">
+        <v>3.0240999999999998</v>
+      </c>
+      <c r="F25">
+        <v>2.2370000000000001</v>
+      </c>
+      <c r="G25">
+        <v>3.3007</v>
+      </c>
+      <c r="H25">
+        <v>3.9773999999999998</v>
+      </c>
+      <c r="I25">
+        <v>3.4068999999999998</v>
+      </c>
+      <c r="J25">
+        <v>3.2854000000000001</v>
+      </c>
+      <c r="K25">
+        <v>1.8368</v>
+      </c>
+      <c r="L25">
+        <v>0.81879999999999997</v>
+      </c>
+      <c r="M25">
+        <v>2.5173000000000001</v>
+      </c>
+      <c r="N25">
+        <v>1.1488</v>
+      </c>
+      <c r="O25">
+        <v>1.3454999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <v>0.1865</v>
+      </c>
+      <c r="C26">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1.43E-2</v>
+      </c>
+      <c r="G26" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I26" s="2">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="K26" s="2">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="L26">
+        <v>0.2162</v>
+      </c>
+      <c r="M26" s="2">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="N26">
+        <v>0.1318</v>
+      </c>
+      <c r="O26">
+        <v>8.9800000000000005E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B27">
-        <v>0.92989999999999995</v>
+        <v>0.66649999999999998</v>
       </c>
       <c r="C27">
-        <v>1.2110000000000001</v>
+        <v>0.52910000000000001</v>
       </c>
       <c r="D27">
-        <v>2.2456999999999998</v>
-      </c>
-      <c r="E27">
-        <v>3.0240999999999998</v>
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2.1399999999999999E-2</v>
       </c>
       <c r="F27">
-        <v>2.2370000000000001</v>
-      </c>
-      <c r="G27">
-        <v>3.3007</v>
-      </c>
-      <c r="H27">
-        <v>3.9773999999999998</v>
-      </c>
-      <c r="I27">
-        <v>3.4068999999999998</v>
-      </c>
-      <c r="J27">
-        <v>3.2854000000000001</v>
+        <v>0.1203</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="I27" s="3">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1.09E-2</v>
       </c>
       <c r="K27">
-        <v>1.8368</v>
+        <v>0.24030000000000001</v>
       </c>
       <c r="L27">
-        <v>0.81879999999999997</v>
+        <v>0.71550000000000002</v>
       </c>
       <c r="M27">
-        <v>2.5173000000000001</v>
+        <v>6.6100000000000006E-2</v>
       </c>
       <c r="N27">
-        <v>1.1488</v>
+        <v>0.56359999999999999</v>
       </c>
       <c r="O27">
-        <v>1.3454999999999999</v>
+        <v>0.46439999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B28">
-        <v>0.1865</v>
+        <v>0.98</v>
       </c>
       <c r="C28">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1.5100000000000001E-2</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="F28" s="2">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="D28">
+        <v>0.22839999999999999</v>
+      </c>
+      <c r="E28" s="3">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.2324</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="H28" s="3">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I28" s="3">
         <v>1.43E-2</v>
       </c>
-      <c r="G28" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="H28" s="2">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I28" s="2">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="J28" s="2">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="K28" s="2">
-        <v>3.6200000000000003E-2</v>
+      <c r="J28" s="3">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="K28">
+        <v>0.46810000000000002</v>
       </c>
       <c r="L28">
-        <v>0.2162</v>
-      </c>
-      <c r="M28" s="2">
-        <v>9.4000000000000004E-3</v>
+        <v>0.99260000000000004</v>
+      </c>
+      <c r="M28">
+        <v>0.1321</v>
       </c>
       <c r="N28">
-        <v>0.1318</v>
+        <v>0.92010000000000003</v>
       </c>
       <c r="O28">
-        <v>8.9800000000000005E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29">
-        <v>0.66649999999999998</v>
-      </c>
-      <c r="C29">
-        <v>0.52910000000000001</v>
-      </c>
-      <c r="D29">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="E29" s="3">
-        <v>2.1399999999999999E-2</v>
-      </c>
-      <c r="F29">
-        <v>0.1203</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1.0699999999999999E-2</v>
-      </c>
-      <c r="H29" s="3">
-        <v>1.5E-3</v>
-      </c>
-      <c r="I29" s="3">
-        <v>7.7000000000000002E-3</v>
-      </c>
-      <c r="J29" s="3">
-        <v>1.09E-2</v>
-      </c>
-      <c r="K29">
-        <v>0.24030000000000001</v>
-      </c>
-      <c r="L29">
-        <v>0.71550000000000002</v>
-      </c>
-      <c r="M29">
-        <v>6.6100000000000006E-2</v>
-      </c>
-      <c r="N29">
-        <v>0.56359999999999999</v>
-      </c>
-      <c r="O29">
-        <v>0.46439999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30">
-        <v>0.98</v>
-      </c>
-      <c r="C30">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="D30">
-        <v>0.22839999999999999</v>
-      </c>
-      <c r="E30" s="3">
-        <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="F30">
-        <v>0.2324</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1.9400000000000001E-2</v>
-      </c>
-      <c r="H30" s="3">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="I30" s="3">
-        <v>1.43E-2</v>
-      </c>
-      <c r="J30" s="3">
-        <v>1.9900000000000001E-2</v>
-      </c>
-      <c r="K30">
-        <v>0.46810000000000002</v>
-      </c>
-      <c r="L30">
-        <v>0.99260000000000004</v>
-      </c>
-      <c r="M30">
-        <v>0.1321</v>
-      </c>
-      <c r="N30">
-        <v>0.92010000000000003</v>
-      </c>
-      <c r="O30">
         <v>0.81899999999999995</v>
       </c>
     </row>

--- a/derivatives/h1-1_palm/h1-1_results.xlsx
+++ b/derivatives/h1-1_palm/h1-1_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/istart-eyeballs/derivatives/h1-1_palm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{858720DF-B528-8244-B07A-888C4ADFE41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E9344707-03AB-BB4F-8683-CCE676A0BFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28780" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="74" uniqueCount="24">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="100" uniqueCount="50">
   <si>
     <t>IV</t>
   </si>
@@ -97,6 +97,84 @@
   </si>
   <si>
     <t>RIGHT HEMISPHERE</t>
+  </si>
+  <si>
+    <t>0.0025**</t>
+  </si>
+  <si>
+    <t>0.0015**</t>
+  </si>
+  <si>
+    <t>0.0107*</t>
+  </si>
+  <si>
+    <t>0.0194*</t>
+  </si>
+  <si>
+    <t>0.0077**</t>
+  </si>
+  <si>
+    <t>0.0143**</t>
+  </si>
+  <si>
+    <t>0.0109*</t>
+  </si>
+  <si>
+    <t>0.0199*</t>
+  </si>
+  <si>
+    <t>0.0214*</t>
+  </si>
+  <si>
+    <t>0.0403*</t>
+  </si>
+  <si>
+    <t>0.0087**</t>
+  </si>
+  <si>
+    <t>0.02*</t>
+  </si>
+  <si>
+    <t>0.0151*</t>
+  </si>
+  <si>
+    <t>0.0017**</t>
+  </si>
+  <si>
+    <t>0.0143*</t>
+  </si>
+  <si>
+    <t>0.0005***</t>
+  </si>
+  <si>
+    <t>0.0003***</t>
+  </si>
+  <si>
+    <t>0.0008***</t>
+  </si>
+  <si>
+    <t>0.0011**</t>
+  </si>
+  <si>
+    <t>0.0362*</t>
+  </si>
+  <si>
+    <t>0.0094**</t>
+  </si>
+  <si>
+    <t>0.0274*</t>
+  </si>
+  <si>
+    <t>0.0455*</t>
+  </si>
+  <si>
+    <t>0.0009***</t>
+  </si>
+  <si>
+    <t>0.0068**</t>
+  </si>
+  <si>
+    <t>0.0497*</t>
   </si>
 </sst>
 </file>
@@ -592,11 +670,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -966,7 +1051,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD16"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1269,46 +1354,46 @@
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>1.0362</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>1.6943999999999999</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>1.1114999999999999</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>0.76959999999999995</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>1.5343</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>2.4613</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>3.2860999999999998</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>1.3832</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <v>0.30940000000000001</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="2">
         <v>0.40629999999999999</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <v>-2.8400000000000002E-2</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="2">
         <v>1.7146999999999999</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="2">
         <v>1.9569000000000001</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="2">
         <v>-2.1899999999999999E-2</v>
       </c>
     </row>
@@ -1316,46 +1401,46 @@
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>0.15559999999999999</v>
       </c>
-      <c r="C11" s="2">
-        <v>4.9700000000000001E-2</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="2">
         <v>0.1346</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>0.22370000000000001</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>6.3100000000000003E-2</v>
       </c>
-      <c r="G11" s="2">
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="H11" s="2">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="I11">
+      <c r="G11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="2">
         <v>8.7599999999999997E-2</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <v>0.37980000000000003</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <v>0.34949999999999998</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <v>0.51639999999999997</v>
       </c>
-      <c r="M11" s="2">
-        <v>4.5499999999999999E-2</v>
-      </c>
-      <c r="N11" s="2">
-        <v>2.7400000000000001E-2</v>
-      </c>
-      <c r="O11">
+      <c r="M11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="2">
         <v>0.51339999999999997</v>
       </c>
     </row>
@@ -1363,46 +1448,46 @@
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>0.61009999999999998</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>0.28710000000000002</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>0.57340000000000002</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>0.73360000000000003</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>0.36080000000000001</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>7.2099999999999997E-2</v>
       </c>
-      <c r="H12" s="3">
-        <v>8.6999999999999994E-3</v>
-      </c>
-      <c r="I12">
+      <c r="H12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="2">
         <v>0.43519999999999998</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <v>0.88959999999999995</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="2">
         <v>0.85950000000000004</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="2">
         <v>0.95289999999999997</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="2">
         <v>0.2797</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="2">
         <v>0.19420000000000001</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="2">
         <v>0.95140000000000002</v>
       </c>
     </row>
@@ -1410,46 +1495,46 @@
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>0.94989999999999997</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>0.55410000000000004</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>0.92390000000000005</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>0.99390000000000001</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>0.67290000000000005</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>0.1484</v>
       </c>
-      <c r="H13" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="I13">
+      <c r="H13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="2">
         <v>0.78090000000000004</v>
       </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2">
         <v>0.5403</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="2">
         <v>0.38040000000000002</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1746,46 +1831,46 @@
       <c r="A25" t="s">
         <v>18</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>0.92989999999999995</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>1.2110000000000001</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>2.2456999999999998</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>3.0240999999999998</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>2.2370000000000001</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
         <v>3.3007</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="2">
         <v>3.9773999999999998</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="2">
         <v>3.4068999999999998</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="2">
         <v>3.2854000000000001</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="2">
         <v>1.8368</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="2">
         <v>0.81879999999999997</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="2">
         <v>2.5173000000000001</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="2">
         <v>1.1488</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="2">
         <v>1.3454999999999999</v>
       </c>
     </row>
@@ -1793,46 +1878,46 @@
       <c r="A26" t="s">
         <v>19</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>0.1865</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>0.11799999999999999</v>
       </c>
-      <c r="D26" s="2">
-        <v>1.5100000000000001E-2</v>
-      </c>
-      <c r="E26" s="2">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1.43E-2</v>
-      </c>
-      <c r="G26" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="H26" s="2">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I26" s="2">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="J26" s="2">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="K26" s="2">
-        <v>3.6200000000000003E-2</v>
-      </c>
-      <c r="L26">
+      <c r="D26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26" s="2">
         <v>0.2162</v>
       </c>
-      <c r="M26" s="2">
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="N26">
+      <c r="M26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" s="2">
         <v>0.1318</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="2">
         <v>8.9800000000000005E-2</v>
       </c>
     </row>
@@ -1840,46 +1925,46 @@
       <c r="A27" t="s">
         <v>20</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>0.66649999999999998</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>0.52910000000000001</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>0.11799999999999999</v>
       </c>
-      <c r="E27" s="3">
-        <v>2.1399999999999999E-2</v>
-      </c>
-      <c r="F27">
+      <c r="E27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="2">
         <v>0.1203</v>
       </c>
-      <c r="G27" s="3">
-        <v>1.0699999999999999E-2</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1.5E-3</v>
-      </c>
-      <c r="I27" s="3">
-        <v>7.7000000000000002E-3</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1.09E-2</v>
-      </c>
-      <c r="K27">
+      <c r="G27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="2">
         <v>0.24030000000000001</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="2">
         <v>0.71550000000000002</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="2">
         <v>6.6100000000000006E-2</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="2">
         <v>0.56359999999999999</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="2">
         <v>0.46439999999999998</v>
       </c>
     </row>
@@ -1887,46 +1972,46 @@
       <c r="A28" t="s">
         <v>21</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>0.98</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>0.89200000000000002</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>0.22839999999999999</v>
       </c>
-      <c r="E28" s="3">
-        <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="F28">
+      <c r="E28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="2">
         <v>0.2324</v>
       </c>
-      <c r="G28" s="3">
-        <v>1.9400000000000001E-2</v>
-      </c>
-      <c r="H28" s="3">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="I28" s="3">
-        <v>1.43E-2</v>
-      </c>
-      <c r="J28" s="3">
-        <v>1.9900000000000001E-2</v>
-      </c>
-      <c r="K28">
+      <c r="G28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="2">
         <v>0.46810000000000002</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="2">
         <v>0.99260000000000004</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="2">
         <v>0.1321</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="2">
         <v>0.92010000000000003</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="2">
         <v>0.81899999999999995</v>
       </c>
     </row>
